--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13194,8 +13206,40 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1171">
   <si>
     <t>en</t>
   </si>
@@ -962,6 +962,9 @@
   </si>
   <si>
     <t>Explosive</t>
+  </si>
+  <si>
+    <t>Eye</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -3873,7 +3876,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13238,8 +13241,16 @@
         <v>1169</v>
       </c>
     </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1170</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1172">
   <si>
     <t>en</t>
   </si>
@@ -2825,6 +2825,9 @@
   </si>
   <si>
     <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -3876,7 +3879,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13249,8 +13252,16 @@
         <v>1170</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1171</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -988,9 +988,6 @@
     <t>Fairy Tales</t>
   </si>
   <si>
-    <t>Fall Drop</t>
-  </si>
-  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -3146,6 +3143,9 @@
   </si>
   <si>
     <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
   </si>
   <si>
     <t>The Emperor's New Groove</t>

--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1173">
   <si>
     <t>en</t>
   </si>
@@ -2240,6 +2240,9 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -3879,7 +3882,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1171"/>
+  <dimension ref="A1:B1172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13260,8 +13263,16 @@
         <v>1171</v>
       </c>
     </row>
+    <row r="1172" spans="1:2">
+      <c r="A1172" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1172</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1171"/>
+  <autoFilter ref="A1:B1172"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1174">
   <si>
     <t>en</t>
   </si>
@@ -1265,6 +1265,9 @@
   </si>
   <si>
     <t>Font (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -3882,7 +3885,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13271,8 +13274,16 @@
         <v>1172</v>
       </c>
     </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1173</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1175">
   <si>
     <t>en</t>
   </si>
@@ -3317,6 +3317,9 @@
   </si>
   <si>
     <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -3885,7 +3888,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13282,8 +13285,16 @@
         <v>1173</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1174</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1176">
   <si>
     <t>en</t>
   </si>
@@ -1769,6 +1769,9 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -3888,7 +3891,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13293,8 +13296,16 @@
         <v>1174</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1175</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/en/headTags.xlsx
+++ b/lang/en/headTags.xlsx
@@ -1771,7 +1771,7 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
-    <t>Hypixel (Mutations) Tag</t>
+    <t>Hypixel (Mutations)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
